--- a/Tools/Snplists/T1D_GRS30/T1D_GRS30_1000G_nopalin_pos_hg19.xlsx
+++ b/Tools/Snplists/T1D_GRS30/T1D_GRS30_1000G_nopalin_pos_hg19.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/s_sharp_exeter_ac_uk/Documents/LIVE/hla-prs-toolkit/Snplists/T1D_GRS30/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/s_sharp_exeter_ac_uk/Documents/LIVE/hla-prs-toolkit/Tools/Snplists/T1D_GRS30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{8C22A28F-1A4C-9443-B3DE-A83A6298F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B6A1C17-E803-C14D-8F31-494A1A629C54}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{8C22A28F-1A4C-9443-B3DE-A83A6298F870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8399860F-CA74-DE4F-BB2A-55ECC0B116B6}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27120" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27120" xr2:uid="{790D5DEB-C308-234D-BB35-18DFB1DC5B15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="87">
   <si>
     <t>STRAND</t>
   </si>
@@ -162,12 +163,6 @@
     <t>6:31431780</t>
   </si>
   <si>
-    <t>A1_MAJOR</t>
-  </si>
-  <si>
-    <t>A2_MINOR</t>
-  </si>
-  <si>
     <t>6:32413545</t>
   </si>
   <si>
@@ -289,6 +284,18 @@
   </si>
   <si>
     <t>6:90957463</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Freq_UKB(A1)</t>
+  </si>
+  <si>
+    <t>Freq_UKB(A2)</t>
   </si>
 </sst>
 </file>
@@ -324,11 +331,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2936C92A-3A1B-4C43-81CA-C5EF6A570C1B}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N31"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,15 +663,16 @@
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -671,69 +680,85 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>0.854966</v>
+      </c>
+      <c r="G2">
+        <v>0.145034</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -744,67 +769,85 @@
       <c r="E3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
+      <c r="F3">
+        <v>0.89913100000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.100869</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>0.90452900000000003</v>
+      </c>
+      <c r="G4">
+        <v>9.5470700000000006E-2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1">
         <v>0.43</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>80</v>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
@@ -812,61 +855,77 @@
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5">
+        <v>0.96060800000000002</v>
+      </c>
+      <c r="G5">
+        <v>3.9392000000000003E-2</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1">
         <v>0.92</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>80</v>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="F6">
+        <v>0.13966200000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.86033800000000005</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1">
         <v>2.7</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>80</v>
+      <c r="L6" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
@@ -874,69 +933,85 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7">
+        <v>9.6524700000000005E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.90347500000000003</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
+      <c r="L7" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="F8">
+        <v>0.29438399999999998</v>
+      </c>
+      <c r="G8">
+        <v>0.70561600000000002</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>80</v>
+      <c r="K8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -944,7 +1019,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
@@ -952,26 +1027,34 @@
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="F9">
+        <v>0.89375099999999996</v>
+      </c>
+      <c r="G9">
+        <v>0.106249</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1">
         <v>0.46</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>80</v>
+      <c r="K9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -979,34 +1062,42 @@
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="F10">
+        <v>0.34439599999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.65560399999999996</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1">
         <v>0.3</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>80</v>
+      <c r="K10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1014,7 +1105,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
@@ -1022,26 +1113,34 @@
       <c r="E11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="F11">
+        <v>0.72569399999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.27430599999999999</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>80</v>
+      <c r="K11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -1049,34 +1148,42 @@
         <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="1">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.95579999999999998</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1">
         <v>0.26</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>80</v>
+      <c r="K12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1084,7 +1191,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
@@ -1092,26 +1199,34 @@
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="F13">
+        <v>0.90441199999999999</v>
+      </c>
+      <c r="G13">
+        <v>9.5588099999999995E-2</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>80</v>
+      <c r="L13" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1119,7 +1234,7 @@
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
@@ -1127,26 +1242,34 @@
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="F14">
+        <v>0.64397300000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.35602699999999998</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="1">
         <v>0.21</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>80</v>
+      <c r="L14" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1154,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>37</v>
@@ -1162,26 +1285,34 @@
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="F15">
+        <v>0.55195499999999997</v>
+      </c>
+      <c r="G15">
+        <v>0.44804500000000003</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1">
         <v>0.2</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
+      <c r="L15" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -1189,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
@@ -1197,31 +1328,39 @@
       <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="F16">
+        <v>0.83335800000000004</v>
+      </c>
+      <c r="G16">
+        <v>0.16664200000000001</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.18</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>80</v>
+      <c r="L16" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
@@ -1232,26 +1371,33 @@
       <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="F17">
+        <v>0.75967499999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.24032500000000001</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="1">
         <v>0.17</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1259,7 +1405,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -1267,26 +1413,34 @@
       <c r="E18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="F18">
+        <v>0.84949600000000003</v>
+      </c>
+      <c r="G18">
+        <v>0.150504</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="1">
         <v>0.17</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>80</v>
+      <c r="L18" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1294,34 +1448,42 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="F19">
+        <v>0.54494500000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.45505499999999999</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="1">
         <v>0.16</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>80</v>
+      <c r="L19" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1329,34 +1491,42 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="1">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>0.28677900000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.71322099999999999</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="1">
         <v>0.15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>80</v>
+      <c r="K20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1364,7 +1534,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>36</v>
@@ -1372,26 +1542,34 @@
       <c r="E21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="F21">
+        <v>0.40630300000000003</v>
+      </c>
+      <c r="G21">
+        <v>0.59369700000000003</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="1">
         <v>0.15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>80</v>
+      <c r="K21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1399,7 +1577,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>34</v>
@@ -1407,26 +1585,34 @@
       <c r="E22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="F22">
+        <v>0.329953</v>
+      </c>
+      <c r="G22">
+        <v>0.67004699999999995</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="1">
         <v>0.15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>80</v>
+      <c r="K22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -1434,7 +1620,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -1442,26 +1628,34 @@
       <c r="E23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="F23">
+        <v>0.83714299999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.162857</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="1">
         <v>0.15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>80</v>
+      <c r="K23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1469,34 +1663,42 @@
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="1">
+        <v>36</v>
+      </c>
+      <c r="F24">
+        <v>0.477993</v>
+      </c>
+      <c r="G24">
+        <v>0.522007</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="1">
         <v>0.15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>80</v>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1504,7 +1706,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>36</v>
@@ -1512,26 +1714,34 @@
       <c r="E25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="F25">
+        <v>0.59216400000000002</v>
+      </c>
+      <c r="G25">
+        <v>0.40783599999999998</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="1">
         <v>0.15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>80</v>
+      <c r="K25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1539,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
@@ -1547,31 +1757,39 @@
       <c r="E26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="F26">
+        <v>0.80947100000000005</v>
+      </c>
+      <c r="G26">
+        <v>0.190529</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="1">
         <v>0.13</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>80</v>
+      <c r="K26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>10</v>
@@ -1582,26 +1800,34 @@
       <c r="E27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="F27">
+        <v>0.52881100000000003</v>
+      </c>
+      <c r="G27">
+        <v>0.47118900000000002</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="1">
         <v>0.12</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>80</v>
+      <c r="K27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1835,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>36</v>
@@ -1617,26 +1843,34 @@
       <c r="E28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="F28">
+        <v>0.56847499999999995</v>
+      </c>
+      <c r="G28">
+        <v>0.43152499999999999</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" s="1">
         <v>0.12</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>80</v>
+      <c r="L28" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1644,7 +1878,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>35</v>
@@ -1652,26 +1886,34 @@
       <c r="E29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="F29">
+        <v>0.70600700000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.293993</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="1">
         <v>0.11</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>80</v>
+      <c r="L29" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,34 +1921,42 @@
         <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="1">
+        <v>36</v>
+      </c>
+      <c r="F30">
+        <v>0.355574</v>
+      </c>
+      <c r="G30">
+        <v>0.64442600000000005</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" s="1">
         <v>0.1</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>80</v>
+      <c r="K30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
@@ -1714,7 +1964,7 @@
         <v>6</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>36</v>
@@ -1722,27 +1972,71 @@
       <c r="E31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="F31">
+        <v>0.61478299999999997</v>
+      </c>
+      <c r="G31">
+        <v>0.38521699999999998</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" s="1">
         <v>0.1</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>80</v>
+      <c r="K31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F7120-6A45-8A44-8F05-4267C88A38C1}">
+  <dimension ref="M6:M31"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="A1:J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="11" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="16" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>